--- a/result_compare.xlsx
+++ b/result_compare.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bi_proj\publish_comb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bi_proj\PUTransGCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E9AAED-79C4-4EDC-8026-15F0CFD3F97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D0D84E-D2AC-4E45-9FEF-0EF969B53E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6110" yWindow="1140" windowWidth="18630" windowHeight="13940" tabRatio="1000" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="800" windowWidth="18630" windowHeight="13940" tabRatio="1000" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETGPDA" sheetId="1" r:id="rId1"/>
@@ -20009,7 +20009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -21037,8 +21037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A86FC7F-3CB7-4C45-84E9-01080EA869EF}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -21091,13 +21091,13 @@
         <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -21105,13 +21105,13 @@
         <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
